--- a/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
@@ -361,14 +361,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Beskrivelse</t>
+          <t>Metadata</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Arkfane Figurdata viser data for Øremerket bistand til klimatilpasning (beregnet), 2020-2023. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Øremerket bistand til klimatilpasning (beregnet), 2020-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Øremerket bistand til klimatilpasning (beregnet), 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,7 @@
         <v>2021</v>
       </c>
       <c r="B3">
-        <v>1.0820375483476</v>
+        <v>1.0818536775476</v>
       </c>
     </row>
     <row r="4">
@@ -418,7 +418,7 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>1.7492311633094</v>
+        <v>1.7488841341094</v>
       </c>
     </row>
     <row r="5">
@@ -426,7 +426,15 @@
         <v>2023</v>
       </c>
       <c r="B5">
-        <v>3.1763678186048</v>
+        <v>3.1763334816048</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6">
+        <v>3.0140708330104</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
@@ -434,7 +434,7 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>3.0140708330104</v>
+        <v>3.0064433562104</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Øremerket bistand til klimatilpasning (beregnet), 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for øremerket bistand til klimatilpasning (beregnet), 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_adaptation_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for øremerket bistand til klimatilpasning (beregnet), 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk øremerket bistand til klimatilpasning (beregnet). 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
